--- a/tests/data/input/一级测试用例-16002.xlsx
+++ b/tests/data/input/一级测试用例-16002.xlsx
@@ -56,8 +56,8 @@
   </si>
   <si>
     <t>info_court_administrative_violation.court_id;
-info_court_administrative_violation.case_no[0]="";
-info_court_administrative_violation.case_no[1]=""</t>
+info_court_administrative_violation.case_no[0]=;
+info_court_administrative_violation.case_no[1]=</t>
   </si>
   <si>
     <t>court_ent_admi_vio=2</t>
@@ -74,8 +74,8 @@
   </si>
   <si>
     <t>info_court_judicative_pape.court_id;
-info_court_judicative_pape.case_no[0]="";
-info_court_judicative_pape.case_no[1]=""</t>
+info_court_judicative_pape.case_no[0]=;
+info_court_judicative_pape.case_no[1]=</t>
   </si>
   <si>
     <t>court_ent_judge=2</t>
@@ -88,8 +88,8 @@
   </si>
   <si>
     <t>info_court_trial_process.court_id;
-info_court_trial_process.case_no[0]="";
-info_court_trial_process.case_no[1]=""</t>
+info_court_trial_process.case_no[0]=;
+info_court_trial_process.case_no[1]=</t>
   </si>
   <si>
     <t>court_ent_trial_proc=2</t>
@@ -102,8 +102,8 @@
   </si>
   <si>
     <t>info_court_taxable_abnormal_user.court_id;
-info_court_taxable_abnormal_user.objection[0]="";
-info_court_taxable_abnormal_user.objection[1]=""</t>
+info_court_taxable_abnormal_user.objection[0]=;
+info_court_taxable_abnormal_user.objection[1]=</t>
   </si>
   <si>
     <t>court_ent_tax_pay=2</t>
@@ -116,8 +116,8 @@
   </si>
   <si>
     <t>info_court_arrearage.court_id;
-info_court_arrearage.objection[0]="";
-info_court_arrearage.objection[1]=""</t>
+info_court_arrearage.objection[0]=;
+info_court_arrearage.objection[1]=</t>
   </si>
   <si>
     <t>court_ent_owed_owe=2</t>
@@ -130,8 +130,8 @@
   </si>
   <si>
     <t>info_court_tax_arrears.court_id;
-info_court_tax_arrears.objection[0]="";
-info_court_tax_arrears.objection[1]=""</t>
+info_court_tax_arrears.objection[0]=;
+info_court_tax_arrears.objection[1]=</t>
   </si>
   <si>
     <t>court_ent_tax_arrears=2</t>
@@ -144,8 +144,8 @@
   </si>
   <si>
     <t>info_court_deadbeat.court_id;
-info_court_deadbeat.objection[0]="";
-info_court_deadbeat.objection[1]=""</t>
+info_court_deadbeat.objection[0]=;
+info_court_deadbeat.objection[1]=</t>
   </si>
   <si>
     <t>court_ent_dishonesty=2</t>
@@ -158,8 +158,8 @@
   </si>
   <si>
     <t>info_court_limited_entry_exit.court_id;
-info_court_limited_entry_exit.objection[0]="";
-info_court_limited_entry_exit.objection[1]=""</t>
+info_court_limited_entry_exit.objection[0]=;
+info_court_limited_entry_exit.objection[1]=</t>
   </si>
   <si>
     <t>court_ent_limit_entry=2</t>
@@ -172,8 +172,8 @@
   </si>
   <si>
     <t>info_court_limit_hignspending.court_id;
-info_court_limit_hignspending.objection[0]="";
-info_court_limit_hignspending.objection[1]=""</t>
+info_court_limit_hignspending.objection[0]=;
+info_court_limit_hignspending.objection[1]=</t>
   </si>
   <si>
     <t>court_ent_high_cons=2</t>
@@ -186,8 +186,8 @@
   </si>
   <si>
     <t>info_court_excute_public.court_id;
-info_court_excute_public.objection[0]="";
-info_court_excute_public.objection[1]=""</t>
+info_court_excute_public.objection[0]=;
+info_court_excute_public.objection[1]=</t>
   </si>
   <si>
     <t>court_ent_pub_info=2</t>
@@ -200,8 +200,8 @@
   </si>
   <si>
     <t>info_court_criminal_suspect.court_id;
-info_court_criminal_suspect.objection[0]="";
-info_court_criminal_suspect.objection[1]=""</t>
+info_court_criminal_suspect.objection[0]=;
+info_court_criminal_suspect.objection[1]=</t>
   </si>
   <si>
     <t>court_ent_cri_sus=2</t>
@@ -290,8 +290,8 @@
   </si>
   <si>
     <t>info_court_judicative_pape.court_id;
-info_court_judicative_pape.legal_status[0]="";
-info_court_judicative_pape.legal_status[1]=""</t>
+info_court_judicative_pape.legal_status[0]=;
+info_court_judicative_pape.legal_status[1]=</t>
   </si>
   <si>
     <t>court_ent_docu_status=0</t>
@@ -334,8 +334,8 @@
   </si>
   <si>
     <t>info_court_trial_process.court_id;
-info_court_trial_process.legal_status[0]="";
-info_court_trial_process.legal_status[1]=""</t>
+info_court_trial_process.legal_status[0]=;
+info_court_trial_process.legal_status[1]=</t>
   </si>
   <si>
     <t>court_ent_proc_status=0</t>
@@ -493,10 +493,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -513,24 +513,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,25 +544,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,7 +574,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,6 +605,29 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -611,35 +642,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,13 +656,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -672,6 +672,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -684,175 +768,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,30 +894,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -937,7 +913,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,11 +938,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,6 +982,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -999,10 +999,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,133 +1011,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,8 +1490,8 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="67.5" spans="1:9">
+    <row r="16" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A16" s="4">
         <v>77</v>
       </c>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="67.5" spans="1:9">
+    <row r="18" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A18" s="4">
         <v>79</v>
       </c>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="67.5" spans="1:9">
+    <row r="32" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A32" s="4">
         <v>93</v>
       </c>

--- a/tests/data/input/一级测试用例-16002.xlsx
+++ b/tests/data/input/一级测试用例-16002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="128">
   <si>
     <t>用例编号</t>
   </si>
@@ -487,6 +487,54 @@
   <si>
     <t>court_ent_pop_loann=0</t>
   </si>
+  <si>
+    <t>court_ent_pub_info_max</t>
+  </si>
+  <si>
+    <t>info_court_excute_public.court_id;
+info_court_excute_public.execute_content[0]="金额:2500.00";
+info_court_excute_public.execute_content[1]="执行标的金额（万元）:0.4";
+info_court_excute_public.execute_content[2]="执行标的金额（万元）:0.1"</t>
+  </si>
+  <si>
+    <t>court_ent_pub_info_max=4000.00</t>
+  </si>
+  <si>
+    <t>court_ent_judge_max</t>
+  </si>
+  <si>
+    <t>info_court_judicative_pape.court_id;
+info_court_judicative_pape.case_amount[0]=2500;
+info_court_judicative_pape.case_amount[1]=2000;
+info_court_judicative_pape.case_amount[2]=3000</t>
+  </si>
+  <si>
+    <t>court_ent_judge_max=3000</t>
+  </si>
+  <si>
+    <t>court_ent_tax_arrears_max</t>
+  </si>
+  <si>
+    <t>info_court_tax_arrears.court_id;
+info_court_tax_arrears.taxes[0]=1001.05;
+info_court_tax_arrears.taxes[1]=2000;
+info_court_tax_arrears.taxes[2]=2998.95</t>
+  </si>
+  <si>
+    <t>court_ent_tax_arrears_amt_3y=2998.95</t>
+  </si>
+  <si>
+    <t>court_ent_admi_violation_max</t>
+  </si>
+  <si>
+    <t>info_court_administrative_violation.court_id;
+info_court_administrative_violation.execution_result[0]="金额:2500.00";
+info_court_administrative_violation.execution_result[1]="执行标的金额（万元）:0.2";
+info_court_administrative_violation.execution_result[2]="罚款3000"</t>
+  </si>
+  <si>
+    <t>court_ent_admi_violation_max=3000.00</t>
+  </si>
 </sst>
 </file>
 
@@ -494,8 +542,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -513,14 +561,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -537,36 +600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,7 +608,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,14 +624,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,51 +697,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -672,19 +720,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,19 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,139 +888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,6 +942,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -905,35 +964,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,6 +984,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -968,17 +1013,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,6 +1030,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -999,10 +1047,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,133 +1059,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1488,10 +1536,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2807,6 +2855,106 @@
       </c>
       <c r="I53" s="4"/>
     </row>
+    <row r="54" s="1" customFormat="1" ht="94.5" spans="1:9">
+      <c r="A54" s="4">
+        <v>115</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="94.5" spans="1:9">
+      <c r="A55" s="4">
+        <v>116</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="54" spans="1:9">
+      <c r="A56" s="4">
+        <v>117</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="108" spans="1:9">
+      <c r="A57" s="4">
+        <v>118</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
